--- a/data/subject_contrast.xlsx
+++ b/data/subject_contrast.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DD81B-BCBE-4008-88AA-CFCF41A5FD94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61064F1D-C31C-441B-B1DB-34707C821288}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constrast" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constrast!$B$2:$B$217</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1092">
   <si>
     <t>库存现金</t>
   </si>
@@ -6618,6 +6617,74 @@
   </si>
   <si>
     <t>%短期借款%+%向中央银行借款%+%吸收存款及同业存放%+%拆入资金%+%交易性金融负债%+%以公允价值计量且其变动计入当期损益的金融负债%+%衍生金融负债%+%应付票据%+%应付账款%+%预收款项%+%卖出回购金融资产款%+%应付手续费及佣金%+%应付职工薪酬%+%应交税费%+%其他应付款%+%应付分保账款%+%合同负债%+%保险合同准备金%+%代理买卖证券款%+%代理承销证券款%+%持有待售负债%+%一年内到期的非流动负债%+%其他流动负债%+%长期借款%+%应付债券%+%租赁负债%+%长期应付款%+%长期应付职工薪酬%+%预计负债%+%递延收益%+%递延所得税负债%+%其他非流动负债%+%股本(实收资本）%+%其他权益工具%+%资本公积%-%库存股%+%其他综合收益%+%专项储备%+%盈余公积%+%一般风险准备%+%主营业务收入%+%其他业务收入%+%利息收入%+%已赚保费%+%手续费及佣金收入%-%主营业务成本%-%其他业务成本%-%利息支出%-%手续费及佣金支出%-%退保金%-%赔付支出净额%-%提取保险合同准备金净额%-%保单红利支出%-%分保费用%-%税金及附加%-%销售费用%-%管理费用%-%研发费用%-%财务费用%+%其他收益%+%净敞口套期收益%+%公允价值变动收益%-%信用减值损失%+%资产处置收益%+%汇兑收益%+%营业外收入%-%营业外支出%-%所得税费用%+%年初未分配利润%-%利润分配--提取法定盈余公积%-%利润分配--提取法定公益金%-%利润分配--提取职工奖励及福利基金%-%利润分配--提取储备基金%-%利润分配--利润归还投资%-%利润分配--应付优先股股利%-%利润分配--提取任意盈余公积%-%利润分配--应付普通股股利%-%利润分配--转作资本的普通股股利%+%租赁收入%+%少数股东权益%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年初未分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6705,7 +6772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6729,6 +6796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7010,10 +7080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7026,7 +7096,7 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -7042,8 +7112,14 @@
       <c r="E1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7059,8 +7135,14 @@
       <c r="E2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -7076,8 +7158,14 @@
       <c r="E3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7093,8 +7181,14 @@
       <c r="E4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7110,8 +7204,14 @@
       <c r="E5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7127,8 +7227,14 @@
       <c r="E6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7144,8 +7250,14 @@
       <c r="E7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -7161,8 +7273,14 @@
       <c r="E8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7178,8 +7296,14 @@
       <c r="E9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -7195,8 +7319,14 @@
       <c r="E10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7212,8 +7342,14 @@
       <c r="E11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7229,8 +7365,14 @@
       <c r="E12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -7246,8 +7388,14 @@
       <c r="E13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -7263,8 +7411,14 @@
       <c r="E14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -7280,8 +7434,14 @@
       <c r="E15" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -7297,8 +7457,14 @@
       <c r="E16" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -7314,8 +7480,14 @@
       <c r="E17" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -7331,8 +7503,14 @@
       <c r="E18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7348,8 +7526,14 @@
       <c r="E19" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -7365,8 +7549,14 @@
       <c r="E20" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -7382,8 +7572,14 @@
       <c r="E21" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -7399,8 +7595,14 @@
       <c r="E22" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -7416,8 +7618,14 @@
       <c r="E23" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -7433,8 +7641,14 @@
       <c r="E24" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -7450,8 +7664,14 @@
       <c r="E25" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>299</v>
       </c>
@@ -7467,8 +7687,14 @@
       <c r="E26" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>287</v>
       </c>
@@ -7484,8 +7710,14 @@
       <c r="E27" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -7501,8 +7733,14 @@
       <c r="E28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -7518,8 +7756,14 @@
       <c r="E29" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -7535,8 +7779,14 @@
       <c r="E30" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7552,8 +7802,14 @@
       <c r="E31" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>273</v>
       </c>
@@ -7569,8 +7825,14 @@
       <c r="E32" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>252</v>
       </c>
@@ -7586,8 +7848,14 @@
       <c r="E33" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
@@ -7603,8 +7871,14 @@
       <c r="E34" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
@@ -7620,8 +7894,14 @@
       <c r="E35" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>141</v>
       </c>
@@ -7637,8 +7917,14 @@
       <c r="E36" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>142</v>
       </c>
@@ -7654,8 +7940,14 @@
       <c r="E37" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>274</v>
       </c>
@@ -7671,8 +7963,14 @@
       <c r="E38" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>271</v>
       </c>
@@ -7688,8 +7986,14 @@
       <c r="E39" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>272</v>
       </c>
@@ -7705,8 +8009,14 @@
       <c r="E40" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>144</v>
       </c>
@@ -7722,8 +8032,14 @@
       <c r="E41" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>145</v>
       </c>
@@ -7739,8 +8055,14 @@
       <c r="E42" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>167</v>
       </c>
@@ -7756,8 +8078,14 @@
       <c r="E43" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>276</v>
       </c>
@@ -7773,8 +8101,14 @@
       <c r="E44" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>275</v>
       </c>
@@ -7790,8 +8124,14 @@
       <c r="E45" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>288</v>
       </c>
@@ -7807,8 +8147,14 @@
       <c r="E46" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>277</v>
       </c>
@@ -7824,8 +8170,14 @@
       <c r="E47" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>254</v>
       </c>
@@ -7840,6 +8192,12 @@
       </c>
       <c r="E48" s="10" t="s">
         <v>338</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7858,6 +8216,12 @@
       <c r="E49" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F49" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="50" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -7875,6 +8239,12 @@
       <c r="E50" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F50" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="51" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -7892,6 +8262,12 @@
       <c r="E51" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F51" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="52" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -7909,6 +8285,12 @@
       <c r="E52" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F52" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="53" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -7926,6 +8308,12 @@
       <c r="E53" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1083</v>
+      </c>
       <c r="M53" s="10" t="s">
         <v>290</v>
       </c>
@@ -7946,6 +8334,12 @@
       <c r="E54" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F54" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1083</v>
+      </c>
       <c r="M54" s="10" t="s">
         <v>291</v>
       </c>
@@ -7966,6 +8360,12 @@
       <c r="E55" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F55" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -7983,6 +8383,12 @@
       <c r="E56" t="s">
         <v>339</v>
       </c>
+      <c r="F56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -8000,6 +8406,12 @@
       <c r="E57" t="s">
         <v>338</v>
       </c>
+      <c r="F57" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -8017,6 +8429,12 @@
       <c r="E58" t="s">
         <v>338</v>
       </c>
+      <c r="F58" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -8034,6 +8452,12 @@
       <c r="E59" t="s">
         <v>338</v>
       </c>
+      <c r="F59" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -8051,6 +8475,12 @@
       <c r="E60" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F60" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -8068,6 +8498,12 @@
       <c r="E61" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F61" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8085,6 +8521,12 @@
       <c r="E62" t="s">
         <v>338</v>
       </c>
+      <c r="F62" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -8102,6 +8544,12 @@
       <c r="E63" s="10" t="s">
         <v>338</v>
       </c>
+      <c r="F63" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -8119,6 +8567,12 @@
       <c r="E64" t="s">
         <v>338</v>
       </c>
+      <c r="F64" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8133,6 +8587,12 @@
       <c r="E65" t="s">
         <v>338</v>
       </c>
+      <c r="F65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8150,6 +8610,12 @@
       <c r="E66" t="s">
         <v>338</v>
       </c>
+      <c r="F66" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8167,6 +8633,12 @@
       <c r="E67" t="s">
         <v>338</v>
       </c>
+      <c r="F67" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1084</v>
+      </c>
       <c r="M67" t="s">
         <v>292</v>
       </c>
@@ -8193,6 +8665,12 @@
       <c r="E68" t="s">
         <v>339</v>
       </c>
+      <c r="F68" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1084</v>
+      </c>
       <c r="M68" t="s">
         <v>292</v>
       </c>
@@ -8216,6 +8694,12 @@
       <c r="E69" t="s">
         <v>338</v>
       </c>
+      <c r="F69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -8233,6 +8717,12 @@
       <c r="E70" t="s">
         <v>338</v>
       </c>
+      <c r="F70" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -8250,6 +8740,12 @@
       <c r="E71" t="s">
         <v>339</v>
       </c>
+      <c r="F71" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8267,6 +8763,12 @@
       <c r="E72" t="s">
         <v>338</v>
       </c>
+      <c r="F72" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
@@ -8284,6 +8786,12 @@
       <c r="E73" s="10" t="s">
         <v>339</v>
       </c>
+      <c r="F73" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -8301,6 +8809,12 @@
       <c r="E74" s="10" t="s">
         <v>339</v>
       </c>
+      <c r="F74" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -8318,6 +8832,12 @@
       <c r="E75" t="s">
         <v>338</v>
       </c>
+      <c r="F75" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -8335,6 +8855,12 @@
       <c r="E76" t="s">
         <v>339</v>
       </c>
+      <c r="F76" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -8352,6 +8878,12 @@
       <c r="E77" t="s">
         <v>338</v>
       </c>
+      <c r="F77" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -8369,6 +8901,12 @@
       <c r="E78" t="s">
         <v>338</v>
       </c>
+      <c r="F78" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -8386,6 +8924,12 @@
       <c r="E79" t="s">
         <v>338</v>
       </c>
+      <c r="F79" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -8403,6 +8947,12 @@
       <c r="E80" t="s">
         <v>338</v>
       </c>
+      <c r="F80" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -8420,6 +8970,12 @@
       <c r="E81" t="s">
         <v>339</v>
       </c>
+      <c r="F81" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -8437,6 +8993,12 @@
       <c r="E82" t="s">
         <v>339</v>
       </c>
+      <c r="F82" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -8454,6 +9016,12 @@
       <c r="E83" t="s">
         <v>338</v>
       </c>
+      <c r="F83" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -8471,6 +9039,12 @@
       <c r="E84" t="s">
         <v>338</v>
       </c>
+      <c r="F84" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -8488,6 +9062,12 @@
       <c r="E85" t="s">
         <v>339</v>
       </c>
+      <c r="F85" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -8505,6 +9085,12 @@
       <c r="E86" t="s">
         <v>338</v>
       </c>
+      <c r="F86" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1084</v>
+      </c>
       <c r="M86" t="s">
         <v>306</v>
       </c>
@@ -8525,6 +9111,12 @@
       <c r="E87" t="s">
         <v>338</v>
       </c>
+      <c r="F87" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1084</v>
+      </c>
       <c r="M87" t="s">
         <v>296</v>
       </c>
@@ -8545,6 +9137,12 @@
       <c r="E88" t="s">
         <v>338</v>
       </c>
+      <c r="F88" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -8562,6 +9160,12 @@
       <c r="E89" t="s">
         <v>338</v>
       </c>
+      <c r="F89" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -8579,6 +9183,12 @@
       <c r="E90" t="s">
         <v>338</v>
       </c>
+      <c r="F90" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -8596,6 +9206,12 @@
       <c r="E91" t="s">
         <v>339</v>
       </c>
+      <c r="F91" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -8613,6 +9229,12 @@
       <c r="E92" t="s">
         <v>339</v>
       </c>
+      <c r="F92" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -8630,6 +9252,12 @@
       <c r="E93" t="s">
         <v>338</v>
       </c>
+      <c r="F93" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -8647,6 +9275,12 @@
       <c r="E94" t="s">
         <v>338</v>
       </c>
+      <c r="F94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -8664,6 +9298,12 @@
       <c r="E95" t="s">
         <v>338</v>
       </c>
+      <c r="F95" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -8681,8 +9321,14 @@
       <c r="E96" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -8698,8 +9344,14 @@
       <c r="E97" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -8715,8 +9367,14 @@
       <c r="E98" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -8732,8 +9390,14 @@
       <c r="E99" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>261</v>
       </c>
@@ -8749,8 +9413,14 @@
       <c r="E100" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -8766,8 +9436,14 @@
       <c r="E101" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -8783,8 +9459,14 @@
       <c r="E102" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -8800,8 +9482,14 @@
       <c r="E103" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -8817,8 +9505,14 @@
       <c r="E104" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -8834,8 +9528,14 @@
       <c r="E105" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -8851,8 +9551,14 @@
       <c r="E106" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -8868,8 +9574,14 @@
       <c r="E107" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -8885,8 +9597,14 @@
       <c r="E108" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>53</v>
       </c>
@@ -8902,8 +9620,14 @@
       <c r="E109" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -8919,8 +9643,14 @@
       <c r="E110" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -8936,8 +9666,14 @@
       <c r="E111" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -8953,8 +9689,14 @@
       <c r="E112" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>176</v>
       </c>
@@ -8970,8 +9712,14 @@
       <c r="E113" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>171</v>
       </c>
@@ -8987,8 +9735,14 @@
       <c r="E114" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -9004,8 +9758,14 @@
       <c r="E115" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -9021,8 +9781,14 @@
       <c r="E116" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>56</v>
       </c>
@@ -9038,8 +9804,14 @@
       <c r="E117" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -9055,8 +9827,14 @@
       <c r="E118" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>279</v>
       </c>
@@ -9072,8 +9850,14 @@
       <c r="E119" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -9089,8 +9873,14 @@
       <c r="E120" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>280</v>
       </c>
@@ -9106,8 +9896,14 @@
       <c r="E121" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>286</v>
       </c>
@@ -9123,8 +9919,14 @@
       <c r="E122" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -9140,8 +9942,14 @@
       <c r="E123" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -9157,8 +9965,14 @@
       <c r="E124" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -9174,8 +9988,14 @@
       <c r="E125" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>975</v>
       </c>
@@ -9191,8 +10011,14 @@
       <c r="E126" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -9208,8 +10034,14 @@
       <c r="E127" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>327</v>
       </c>
@@ -9225,8 +10057,14 @@
       <c r="E128" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -9242,8 +10080,14 @@
       <c r="E129" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>62</v>
       </c>
@@ -9259,8 +10103,14 @@
       <c r="E130" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>63</v>
       </c>
@@ -9276,8 +10126,14 @@
       <c r="E131" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>64</v>
       </c>
@@ -9293,8 +10149,14 @@
       <c r="E132" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>65</v>
       </c>
@@ -9310,8 +10172,14 @@
       <c r="E133" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -9327,8 +10195,14 @@
       <c r="E134" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -9344,8 +10218,14 @@
       <c r="E135" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -9361,8 +10241,14 @@
       <c r="E136" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>329</v>
       </c>
@@ -9378,8 +10264,14 @@
       <c r="E137" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -9395,8 +10287,14 @@
       <c r="E138" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>265</v>
       </c>
@@ -9412,8 +10310,14 @@
       <c r="E139" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -9429,8 +10333,14 @@
       <c r="E140" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>70</v>
       </c>
@@ -9446,8 +10356,14 @@
       <c r="E141" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -9463,8 +10379,14 @@
       <c r="E142" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>72</v>
       </c>
@@ -9480,8 +10402,14 @@
       <c r="E143" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -9497,8 +10425,14 @@
       <c r="E144" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -9514,8 +10448,14 @@
       <c r="E145" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -9531,8 +10471,14 @@
       <c r="E146" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -9548,8 +10494,14 @@
       <c r="E147" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -9565,8 +10517,14 @@
       <c r="E148" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>281</v>
       </c>
@@ -9582,8 +10540,14 @@
       <c r="E149" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -9599,8 +10563,14 @@
       <c r="E150" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>77</v>
       </c>
@@ -9616,8 +10586,14 @@
       <c r="E151" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>126</v>
       </c>
@@ -9633,8 +10609,14 @@
       <c r="E152" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -9650,8 +10632,14 @@
       <c r="E153" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -9667,8 +10655,14 @@
       <c r="E154" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>80</v>
       </c>
@@ -9684,8 +10678,14 @@
       <c r="E155" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>81</v>
       </c>
@@ -9701,8 +10701,14 @@
       <c r="E156" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>82</v>
       </c>
@@ -9718,8 +10724,14 @@
       <c r="E157" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>83</v>
       </c>
@@ -9735,8 +10747,14 @@
       <c r="E158" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>84</v>
       </c>
@@ -9752,8 +10770,14 @@
       <c r="E159" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>303</v>
       </c>
@@ -9769,8 +10793,14 @@
       <c r="E160" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>158</v>
       </c>
@@ -9786,8 +10816,14 @@
       <c r="E161" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>160</v>
       </c>
@@ -9803,8 +10839,14 @@
       <c r="E162" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -9820,8 +10862,14 @@
       <c r="E163" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>179</v>
       </c>
@@ -9837,8 +10885,14 @@
       <c r="E164" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>85</v>
       </c>
@@ -9854,8 +10908,14 @@
       <c r="E165" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -9871,8 +10931,14 @@
       <c r="E166" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>87</v>
       </c>
@@ -9888,8 +10954,14 @@
       <c r="E167" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -9905,8 +10977,14 @@
       <c r="E168" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>304</v>
       </c>
@@ -9922,8 +11000,14 @@
       <c r="E169" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>163</v>
       </c>
@@ -9939,8 +11023,14 @@
       <c r="E170" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>164</v>
       </c>
@@ -9956,8 +11046,14 @@
       <c r="E171" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -9973,8 +11069,14 @@
       <c r="E172" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>284</v>
       </c>
@@ -9990,8 +11092,14 @@
       <c r="E173" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -10007,8 +11115,14 @@
       <c r="E174" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -10024,8 +11138,14 @@
       <c r="E175" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -10041,8 +11161,14 @@
       <c r="E176" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>91</v>
       </c>
@@ -10058,8 +11184,14 @@
       <c r="E177" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -10075,8 +11207,14 @@
       <c r="E178" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>93</v>
       </c>
@@ -10092,8 +11230,14 @@
       <c r="E179" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>94</v>
       </c>
@@ -10109,8 +11253,14 @@
       <c r="E180" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>95</v>
       </c>
@@ -10126,8 +11276,14 @@
       <c r="E181" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>96</v>
       </c>
@@ -10143,8 +11299,14 @@
       <c r="E182" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -10160,8 +11322,14 @@
       <c r="E183" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>283</v>
       </c>
@@ -10177,8 +11345,14 @@
       <c r="E184" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>97</v>
       </c>
@@ -10194,8 +11368,14 @@
       <c r="E185" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>285</v>
       </c>
@@ -10211,8 +11391,14 @@
       <c r="E186" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>98</v>
       </c>
@@ -10228,8 +11414,14 @@
       <c r="E187" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>99</v>
       </c>
@@ -10245,8 +11437,14 @@
       <c r="E188" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -10262,8 +11460,14 @@
       <c r="E189" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -10279,8 +11483,14 @@
       <c r="E190" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>102</v>
       </c>
@@ -10296,8 +11506,14 @@
       <c r="E191" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>103</v>
       </c>
@@ -10313,8 +11529,14 @@
       <c r="E192" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>128</v>
       </c>
@@ -10330,8 +11552,14 @@
       <c r="E193" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>331</v>
       </c>
@@ -10347,8 +11575,14 @@
       <c r="E194" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>333</v>
       </c>
@@ -10364,8 +11598,14 @@
       <c r="E195" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -10381,8 +11621,14 @@
       <c r="E196" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>161</v>
       </c>
@@ -10398,8 +11644,14 @@
       <c r="E197" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -10415,8 +11667,14 @@
       <c r="E198" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>105</v>
       </c>
@@ -10432,8 +11690,14 @@
       <c r="E199" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>335</v>
       </c>
@@ -10449,8 +11713,14 @@
       <c r="E200" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>106</v>
       </c>
@@ -10466,8 +11736,14 @@
       <c r="E201" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>107</v>
       </c>
@@ -10483,8 +11759,14 @@
       <c r="E202" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G202" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>108</v>
       </c>
@@ -10500,8 +11782,14 @@
       <c r="E203" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G203" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>109</v>
       </c>
@@ -10517,8 +11805,14 @@
       <c r="E204" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G204" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>269</v>
       </c>
@@ -10534,8 +11828,14 @@
       <c r="E205" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G205" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>114</v>
       </c>
@@ -10551,8 +11851,14 @@
       <c r="E206" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -10568,8 +11874,14 @@
       <c r="E207" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>116</v>
       </c>
@@ -10585,8 +11897,14 @@
       <c r="E208" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>155</v>
+      </c>
+      <c r="G208" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>117</v>
       </c>
@@ -10602,8 +11920,14 @@
       <c r="E209" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>155</v>
+      </c>
+      <c r="G209" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>118</v>
       </c>
@@ -10619,8 +11943,14 @@
       <c r="E210" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>155</v>
+      </c>
+      <c r="G210" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>119</v>
       </c>
@@ -10636,8 +11966,14 @@
       <c r="E211" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>155</v>
+      </c>
+      <c r="G211" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>120</v>
       </c>
@@ -10653,8 +11989,14 @@
       <c r="E212" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>155</v>
+      </c>
+      <c r="G212" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>121</v>
       </c>
@@ -10670,8 +12012,14 @@
       <c r="E213" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>155</v>
+      </c>
+      <c r="G213" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>122</v>
       </c>
@@ -10687,8 +12035,14 @@
       <c r="E214" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>155</v>
+      </c>
+      <c r="G214" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>123</v>
       </c>
@@ -10704,8 +12058,14 @@
       <c r="E215" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>155</v>
+      </c>
+      <c r="G215" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>124</v>
       </c>
@@ -10721,19 +12081,11 @@
       <c r="E216" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>82</v>
-      </c>
-      <c r="B217" t="s">
-        <v>82</v>
-      </c>
-      <c r="C217" t="s">
-        <v>82</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
+      <c r="F216" t="s">
+        <v>155</v>
+      </c>
+      <c r="G216" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -10745,20 +12097,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -10768,21 +12120,30 @@
       <c r="C1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="11" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>342</v>
       </c>
       <c r="B3" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>343</v>
       </c>
@@ -10792,8 +12153,11 @@
       <c r="C4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>344</v>
       </c>
@@ -10803,8 +12167,11 @@
       <c r="C5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>345</v>
       </c>
@@ -10814,8 +12181,11 @@
       <c r="C6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>346</v>
       </c>
@@ -10825,8 +12195,11 @@
       <c r="C7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -10836,8 +12209,11 @@
       <c r="C8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -10847,8 +12223,11 @@
       <c r="C9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -10858,8 +12237,11 @@
       <c r="C10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>350</v>
       </c>
@@ -10869,8 +12251,11 @@
       <c r="C11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>351</v>
       </c>
@@ -10880,8 +12265,11 @@
       <c r="C12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>352</v>
       </c>
@@ -10891,8 +12279,11 @@
       <c r="C13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -10902,8 +12293,11 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>354</v>
       </c>
@@ -10913,8 +12307,11 @@
       <c r="C15" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>355</v>
       </c>
@@ -10924,8 +12321,11 @@
       <c r="C16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>356</v>
       </c>
@@ -10935,8 +12335,11 @@
       <c r="C17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -10946,8 +12349,11 @@
       <c r="C18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -10957,8 +12363,11 @@
       <c r="C19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>357</v>
       </c>
@@ -10968,8 +12377,11 @@
       <c r="C20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>358</v>
       </c>
@@ -10979,8 +12391,11 @@
       <c r="C21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>359</v>
       </c>
@@ -10990,8 +12405,11 @@
       <c r="C22" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>960</v>
       </c>
@@ -11001,8 +12419,11 @@
       <c r="C23" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>961</v>
       </c>
@@ -11012,8 +12433,11 @@
       <c r="C24" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>360</v>
       </c>
@@ -11023,8 +12447,11 @@
       <c r="C25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>361</v>
       </c>
@@ -11034,8 +12461,11 @@
       <c r="C26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>362</v>
       </c>
@@ -11045,8 +12475,11 @@
       <c r="C27" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>363</v>
       </c>
@@ -11056,8 +12489,11 @@
       <c r="C28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>364</v>
       </c>
@@ -11067,8 +12503,11 @@
       <c r="C29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>998</v>
       </c>
@@ -11078,8 +12517,11 @@
       <c r="C30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>999</v>
       </c>
@@ -11089,8 +12531,11 @@
       <c r="C31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1000</v>
       </c>
@@ -11100,8 +12545,11 @@
       <c r="C32" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1001</v>
       </c>
@@ -11111,8 +12559,11 @@
       <c r="C33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1002</v>
       </c>
@@ -11122,8 +12573,11 @@
       <c r="C34" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1003</v>
       </c>
@@ -11133,8 +12587,11 @@
       <c r="C35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1004</v>
       </c>
@@ -11144,8 +12601,11 @@
       <c r="C36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1005</v>
       </c>
@@ -11155,8 +12615,11 @@
       <c r="C37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1006</v>
       </c>
@@ -11166,8 +12629,11 @@
       <c r="C38" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1007</v>
       </c>
@@ -11177,8 +12643,11 @@
       <c r="C39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1008</v>
       </c>
@@ -11188,8 +12657,11 @@
       <c r="C40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1009</v>
       </c>
@@ -11199,8 +12671,11 @@
       <c r="C41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1010</v>
       </c>
@@ -11210,8 +12685,11 @@
       <c r="C42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1011</v>
       </c>
@@ -11221,8 +12699,11 @@
       <c r="C43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1012</v>
       </c>
@@ -11232,8 +12713,11 @@
       <c r="C44" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1013</v>
       </c>
@@ -11243,8 +12727,11 @@
       <c r="C45" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1014</v>
       </c>
@@ -11254,8 +12741,11 @@
       <c r="C46" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1015</v>
       </c>
@@ -11265,8 +12755,11 @@
       <c r="C47" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1016</v>
       </c>
@@ -11276,8 +12769,11 @@
       <c r="C48" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1017</v>
       </c>
@@ -11287,8 +12783,11 @@
       <c r="C49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1018</v>
       </c>
@@ -11298,8 +12797,11 @@
       <c r="C50" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1019</v>
       </c>
@@ -11309,8 +12811,11 @@
       <c r="C51" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1020</v>
       </c>
@@ -11320,8 +12825,11 @@
       <c r="C52" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1021</v>
       </c>
@@ -11331,8 +12839,11 @@
       <c r="C53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>365</v>
       </c>
@@ -11342,8 +12853,11 @@
       <c r="C54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>366</v>
       </c>
@@ -11353,8 +12867,11 @@
       <c r="C55" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>310</v>
       </c>
@@ -11364,8 +12881,11 @@
       <c r="C56" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>367</v>
       </c>
@@ -11375,8 +12895,11 @@
       <c r="C57" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -11386,8 +12909,11 @@
       <c r="C58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>971</v>
       </c>
@@ -11397,8 +12923,11 @@
       <c r="C59" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>369</v>
       </c>
@@ -11408,8 +12937,11 @@
       <c r="C60" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -11419,16 +12951,22 @@
       <c r="C61" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>371</v>
       </c>
       <c r="C62" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>972</v>
       </c>
@@ -11438,8 +12976,11 @@
       <c r="C63" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>372</v>
       </c>
@@ -11449,8 +12990,11 @@
       <c r="C64" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>373</v>
       </c>
@@ -11460,8 +13004,11 @@
       <c r="C65" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>374</v>
       </c>
@@ -11471,8 +13018,11 @@
       <c r="C66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>375</v>
       </c>
@@ -11482,8 +13032,11 @@
       <c r="C67" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>376</v>
       </c>
@@ -11493,8 +13046,11 @@
       <c r="C68" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>377</v>
       </c>
@@ -11504,8 +13060,11 @@
       <c r="C69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>378</v>
       </c>
@@ -11515,8 +13074,11 @@
       <c r="C70" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>379</v>
       </c>
@@ -11526,8 +13088,11 @@
       <c r="C71" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>380</v>
       </c>
@@ -11537,8 +13102,11 @@
       <c r="C72" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>381</v>
       </c>
@@ -11548,8 +13116,11 @@
       <c r="C73" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>973</v>
       </c>
@@ -11559,8 +13130,11 @@
       <c r="C74" s="10" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>983</v>
       </c>
@@ -11568,8 +13142,11 @@
         <v>985</v>
       </c>
       <c r="C75" s="10"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>382</v>
       </c>
@@ -11579,8 +13156,11 @@
       <c r="C76" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -11590,8 +13170,11 @@
       <c r="C77" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>384</v>
       </c>
@@ -11601,8 +13184,11 @@
       <c r="C78" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>385</v>
       </c>
@@ -11612,8 +13198,11 @@
       <c r="C79" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>386</v>
       </c>
@@ -11623,8 +13212,11 @@
       <c r="C80" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>387</v>
       </c>
@@ -11634,8 +13226,11 @@
       <c r="C81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>388</v>
       </c>
@@ -11645,8 +13240,11 @@
       <c r="C82" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>389</v>
       </c>
@@ -11656,8 +13254,11 @@
       <c r="C83" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>390</v>
       </c>
@@ -11667,8 +13268,11 @@
       <c r="C84" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>391</v>
       </c>
@@ -11678,8 +13282,11 @@
       <c r="C85" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>392</v>
       </c>
@@ -11689,8 +13296,11 @@
       <c r="C86" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>393</v>
       </c>
@@ -11700,8 +13310,11 @@
       <c r="C87" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>394</v>
       </c>
@@ -11711,8 +13324,11 @@
       <c r="C88" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>395</v>
       </c>
@@ -11722,8 +13338,11 @@
       <c r="C89" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>396</v>
       </c>
@@ -11733,8 +13352,11 @@
       <c r="C90" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>397</v>
       </c>
@@ -11744,8 +13366,11 @@
       <c r="C91" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>398</v>
       </c>
@@ -11755,8 +13380,11 @@
       <c r="C92" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>399</v>
       </c>
@@ -11766,8 +13394,11 @@
       <c r="C93" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>400</v>
       </c>
@@ -11777,8 +13408,11 @@
       <c r="C94" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>401</v>
       </c>
@@ -11788,8 +13422,11 @@
       <c r="C95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>402</v>
       </c>
@@ -11799,8 +13436,11 @@
       <c r="C96" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>403</v>
       </c>
@@ -11810,8 +13450,11 @@
       <c r="C97" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>404</v>
       </c>
@@ -11821,8 +13464,11 @@
       <c r="C98" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>405</v>
       </c>
@@ -11832,8 +13478,11 @@
       <c r="C99" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -11843,8 +13492,11 @@
       <c r="C100" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>407</v>
       </c>
@@ -11854,8 +13506,11 @@
       <c r="C101" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -11865,8 +13520,11 @@
       <c r="C102" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>409</v>
       </c>
@@ -11876,8 +13534,11 @@
       <c r="C103" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>410</v>
       </c>
@@ -11887,8 +13548,11 @@
       <c r="C104" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>411</v>
       </c>
@@ -11898,16 +13562,22 @@
       <c r="C105" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>412</v>
       </c>
       <c r="C106" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>994</v>
       </c>
@@ -11917,8 +13587,11 @@
       <c r="C107" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>413</v>
       </c>
@@ -11928,8 +13601,11 @@
       <c r="C108" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>414</v>
       </c>
@@ -11939,8 +13615,11 @@
       <c r="C109" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>415</v>
       </c>
@@ -11950,8 +13629,11 @@
       <c r="C110" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>416</v>
       </c>
@@ -11961,8 +13643,11 @@
       <c r="C111" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>417</v>
       </c>
@@ -11972,8 +13657,11 @@
       <c r="C112" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>418</v>
       </c>
@@ -11983,8 +13671,11 @@
       <c r="C113" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>596</v>
       </c>
@@ -11994,8 +13685,11 @@
       <c r="C114" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>597</v>
       </c>
@@ -12005,8 +13699,11 @@
       <c r="C115" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -12016,8 +13713,11 @@
       <c r="C116" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>420</v>
       </c>
@@ -12027,8 +13727,11 @@
       <c r="C117" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>421</v>
       </c>
@@ -12038,8 +13741,11 @@
       <c r="C118" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>422</v>
       </c>
@@ -12049,8 +13755,11 @@
       <c r="C119" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>980</v>
       </c>
@@ -12060,8 +13769,11 @@
       <c r="C120" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>981</v>
       </c>
@@ -12071,8 +13783,11 @@
       <c r="C121" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>423</v>
       </c>
@@ -12082,8 +13797,11 @@
       <c r="C122" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>976</v>
       </c>
@@ -12093,8 +13811,11 @@
       <c r="C123" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -12104,8 +13825,11 @@
       <c r="C124" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -12115,8 +13839,11 @@
       <c r="C125" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -12126,8 +13853,11 @@
       <c r="C126" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -12137,8 +13867,11 @@
       <c r="C127" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -12148,8 +13881,11 @@
       <c r="C128" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -12159,8 +13895,11 @@
       <c r="C129" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -12170,8 +13909,11 @@
       <c r="C130" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -12181,8 +13923,11 @@
       <c r="C131" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -12192,8 +13937,11 @@
       <c r="C132" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -12203,16 +13951,22 @@
       <c r="C133" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
       <c r="C134" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -12222,8 +13976,11 @@
       <c r="C135" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -12233,8 +13990,11 @@
       <c r="C136" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -12244,8 +14004,11 @@
       <c r="C137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -12255,8 +14018,11 @@
       <c r="C138" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>977</v>
       </c>
@@ -12266,8 +14032,11 @@
       <c r="C139" s="10" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>988</v>
       </c>
@@ -12275,8 +14044,11 @@
         <v>989</v>
       </c>
       <c r="C140" s="10"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>439</v>
       </c>
@@ -12286,8 +14058,11 @@
       <c r="C141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>440</v>
       </c>
@@ -12297,8 +14072,11 @@
       <c r="C142" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>441</v>
       </c>
@@ -12308,8 +14086,11 @@
       <c r="C143" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>442</v>
       </c>
@@ -12319,8 +14100,11 @@
       <c r="C144" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>443</v>
       </c>
@@ -12330,8 +14114,11 @@
       <c r="C145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>444</v>
       </c>
@@ -12341,8 +14128,11 @@
       <c r="C146" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>445</v>
       </c>
@@ -12352,16 +14142,22 @@
       <c r="C147" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>446</v>
       </c>
       <c r="C148" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -12371,8 +14167,11 @@
       <c r="C149" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>447</v>
       </c>
@@ -12382,8 +14181,11 @@
       <c r="C150" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>448</v>
       </c>
@@ -12393,8 +14195,11 @@
       <c r="C151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>600</v>
       </c>
@@ -12404,8 +14209,11 @@
       <c r="C152" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -12415,8 +14223,11 @@
       <c r="C153" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>450</v>
       </c>
@@ -12426,8 +14237,11 @@
       <c r="C154" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>451</v>
       </c>
@@ -12437,8 +14251,11 @@
       <c r="C155" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>452</v>
       </c>
@@ -12448,8 +14265,11 @@
       <c r="C156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>453</v>
       </c>
@@ -12459,8 +14279,11 @@
       <c r="C157" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>454</v>
       </c>
@@ -12470,8 +14293,11 @@
       <c r="C158" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>455</v>
       </c>
@@ -12481,8 +14307,11 @@
       <c r="C159" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -12492,8 +14321,11 @@
       <c r="C160" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>457</v>
       </c>
@@ -12503,8 +14335,11 @@
       <c r="C161" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>458</v>
       </c>
@@ -12514,8 +14349,11 @@
       <c r="C162" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -12525,8 +14363,11 @@
       <c r="C163" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1070</v>
       </c>
@@ -12536,8 +14377,11 @@
       <c r="C164" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1071</v>
       </c>
@@ -12547,8 +14391,11 @@
       <c r="C165" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>979</v>
       </c>
@@ -12558,8 +14405,11 @@
       <c r="C166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>460</v>
       </c>
@@ -12569,8 +14419,11 @@
       <c r="C167" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>461</v>
       </c>
@@ -12580,8 +14433,11 @@
       <c r="C168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>462</v>
       </c>
@@ -12591,8 +14447,11 @@
       <c r="C169" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>463</v>
       </c>
@@ -12602,8 +14461,11 @@
       <c r="C170" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>464</v>
       </c>
@@ -12613,8 +14475,11 @@
       <c r="C171" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1057</v>
       </c>
@@ -12624,8 +14489,11 @@
       <c r="C172" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1058</v>
       </c>
@@ -12635,8 +14503,11 @@
       <c r="C173" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>465</v>
       </c>
@@ -12646,8 +14517,11 @@
       <c r="C174" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>466</v>
       </c>
@@ -12657,8 +14531,11 @@
       <c r="C175" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>467</v>
       </c>
@@ -12668,8 +14545,11 @@
       <c r="C176" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>468</v>
       </c>
@@ -12679,8 +14559,11 @@
       <c r="C177" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>469</v>
       </c>
@@ -12690,8 +14573,11 @@
       <c r="C178" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>470</v>
       </c>
@@ -12701,8 +14587,11 @@
       <c r="C179" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>471</v>
       </c>
@@ -12712,8 +14601,11 @@
       <c r="C180" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>472</v>
       </c>
@@ -12723,8 +14615,11 @@
       <c r="C181" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>473</v>
       </c>
@@ -12734,8 +14629,11 @@
       <c r="C182" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>474</v>
       </c>
@@ -12745,8 +14643,11 @@
       <c r="C183" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>475</v>
       </c>
@@ -12756,8 +14657,11 @@
       <c r="C184" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>476</v>
       </c>
@@ -12767,8 +14671,11 @@
       <c r="C185" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>477</v>
       </c>
@@ -12778,8 +14685,11 @@
       <c r="C186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>478</v>
       </c>
@@ -12789,8 +14699,11 @@
       <c r="C187" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>479</v>
       </c>
@@ -12800,8 +14713,11 @@
       <c r="C188" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>480</v>
       </c>
@@ -12811,8 +14727,11 @@
       <c r="C189" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>481</v>
       </c>
@@ -12822,8 +14741,11 @@
       <c r="C190" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>482</v>
       </c>
@@ -12833,8 +14755,11 @@
       <c r="C191" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>483</v>
       </c>
@@ -12844,8 +14769,11 @@
       <c r="C192" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>484</v>
       </c>
@@ -12855,8 +14783,11 @@
       <c r="C193" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>485</v>
       </c>
@@ -12866,8 +14797,11 @@
       <c r="C194" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>486</v>
       </c>
@@ -12877,8 +14811,11 @@
       <c r="C195" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>487</v>
       </c>
@@ -12888,8 +14825,11 @@
       <c r="C196" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>488</v>
       </c>
@@ -12899,8 +14839,11 @@
       <c r="C197" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>489</v>
       </c>
@@ -12910,8 +14853,11 @@
       <c r="C198" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>490</v>
       </c>
@@ -12921,8 +14867,11 @@
       <c r="C199" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>491</v>
       </c>
@@ -12932,241 +14881,337 @@
       <c r="C200" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>492</v>
       </c>
       <c r="B201" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>494</v>
       </c>
       <c r="B203" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>495</v>
       </c>
       <c r="B204" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>497</v>
       </c>
       <c r="B206" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>498</v>
       </c>
       <c r="B207" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>499</v>
       </c>
       <c r="B208" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>500</v>
       </c>
       <c r="B209" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>502</v>
       </c>
       <c r="B211" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>503</v>
       </c>
       <c r="B212" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>504</v>
       </c>
       <c r="B213" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>505</v>
       </c>
       <c r="B214" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>507</v>
       </c>
       <c r="B216" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>508</v>
       </c>
       <c r="B217" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>509</v>
       </c>
       <c r="B218" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>510</v>
       </c>
       <c r="B219" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>511</v>
       </c>
       <c r="B220" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>512</v>
       </c>
       <c r="B221" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>513</v>
       </c>
       <c r="B222" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>514</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>515</v>
       </c>
       <c r="B224" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>516</v>
       </c>
       <c r="B225" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>517</v>
       </c>
       <c r="B226" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>518</v>
       </c>
       <c r="B227" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>519</v>
       </c>
       <c r="B228" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>521</v>
       </c>
       <c r="B230" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>522</v>
       </c>
       <c r="B231" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>957</v>
       </c>
@@ -13176,8 +15221,11 @@
       <c r="C232" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>523</v>
       </c>
@@ -13187,8 +15235,11 @@
       <c r="C233" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>524</v>
       </c>
@@ -13198,8 +15249,11 @@
       <c r="C234" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>525</v>
       </c>
@@ -13209,8 +15263,11 @@
       <c r="C235" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>526</v>
       </c>
@@ -13220,8 +15277,11 @@
       <c r="C236" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>527</v>
       </c>
@@ -13231,8 +15291,11 @@
       <c r="C237" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>528</v>
       </c>
@@ -13242,8 +15305,11 @@
       <c r="C238" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>529</v>
       </c>
@@ -13253,8 +15319,11 @@
       <c r="C239" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>530</v>
       </c>
@@ -13264,8 +15333,11 @@
       <c r="C240" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>531</v>
       </c>
@@ -13275,8 +15347,11 @@
       <c r="C241" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>532</v>
       </c>
@@ -13286,8 +15361,11 @@
       <c r="C242" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>533</v>
       </c>
@@ -13297,8 +15375,11 @@
       <c r="C243" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>534</v>
       </c>
@@ -13308,13 +15389,19 @@
       <c r="C244" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>535</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>1068</v>
+      </c>
+      <c r="D245">
+        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/data/subject_contrast.xlsx
+++ b/data/subject_contrast.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8F3E3-549F-4FD5-ACA6-5E9CE6272E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A120C-1AAB-491E-90BD-AC4AD3014873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constrast" sheetId="1" r:id="rId1"/>
-    <sheet name="tb" sheetId="5" r:id="rId2"/>
-    <sheet name="fs1" sheetId="6" r:id="rId3"/>
-    <sheet name="fs2" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="cash" sheetId="8" r:id="rId2"/>
+    <sheet name="tb" sheetId="5" r:id="rId3"/>
+    <sheet name="fs1" sheetId="6" r:id="rId4"/>
+    <sheet name="fs2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constrast!$B$2:$B$220</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="1122">
   <si>
     <t>库存现金</t>
   </si>
@@ -6717,6 +6718,88 @@
   </si>
   <si>
     <t>%短期借款%+%向中央银行借款%+%吸收存款及同业存放%+%拆入资金%+%交易性金融负债%+%以公允价值计量且其变动计入当期损益的金融负债%+%衍生金融负债%+%应付票据%+%应付账款%+%预收款项%+%卖出回购金融资产款%+%应付手续费及佣金%+%应付职工薪酬%+%应交税费%+%其他应付款%+%应付分保账款%+%合同负债%+%保险合同准备金%+%代理买卖证券款%+%代理承销证券款%+%持有待售负债%+%一年内到期的非流动负债%+%其他流动负债%+%其他应交款%+%预提费用%+%长期借款%+%应付债券%+%租赁负债%+%长期应付款%+%长期应付职工薪酬%+%预计负债%+%递延收益%+%递延所得税负债%+%其他非流动负债%-%未确认融资费用%+%应付利息%+%应付股利%+%专项应付款%+%附属企业往来%+%股本(实收资本）%+%其他权益工具%+%资本公积%-%库存股%+%其他综合收益%+%专项储备%+%盈余公积%+%一般风险准备%+%主营业务收入%+%其他业务收入%+%利息收入%+%已赚保费%+%手续费及佣金收入%-%主营业务成本%-%其他业务成本%-%利息支出%-%手续费及佣金支出%-%退保金%-%赔付支出净额%-%提取保险合同准备金净额%-%保单红利支出%-%分保费用%-%税金及附加%-%销售费用%-%管理费用%-%研发费用%-%财务费用%+%其他收益%+%净敞口套期收益%+%公允价值变动收益%-%资产减值损失%-%信用减值损失%+%资产处置收益%+%汇兑收益%+%营业外收入%-%营业外支出%-%所得税费用%+%年初未分配利润%-%利润分配--提取法定盈余公积%-%利润分配--提取法定公益金%-%利润分配--提取职工奖励及福利基金%-%利润分配--提取储备基金%-%利润分配--利润归还投资%-%利润分配--应付优先股股利%-%利润分配--提取任意盈余公积%-%利润分配--应付普通股股利%-%利润分配--转作资本的普通股股利%+%租赁收入%+%少数股东权益%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收补贴款</t>
+  </si>
+  <si>
+    <t>往来款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏账准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料采购</t>
+  </si>
+  <si>
+    <t>待处理财产损溢</t>
+  </si>
+  <si>
+    <t>委托贷款</t>
+  </si>
+  <si>
+    <t>金融投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认融资收益</t>
+  </si>
+  <si>
+    <t>长期资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认融资费用</t>
+  </si>
+  <si>
+    <t>本年利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前年度损益调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期资产减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期资产摊销和折旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融投资减值准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7115,7 +7198,7 @@
   <dimension ref="A1:O219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12223,11 +12306,1807 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8AEA09-107F-4E7A-B894-056E5BC0030F}">
+  <dimension ref="A1:B222"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>830</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>326</v>
+      </c>
+      <c r="B129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>73</v>
+      </c>
+      <c r="B145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>77</v>
+      </c>
+      <c r="B153" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>78</v>
+      </c>
+      <c r="B155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>293</v>
+      </c>
+      <c r="B165" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>87</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>96</v>
+      </c>
+      <c r="B184" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>282</v>
+      </c>
+      <c r="B186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>97</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>99</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>100</v>
+      </c>
+      <c r="B191" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>102</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>103</v>
+      </c>
+      <c r="B194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>330</v>
+      </c>
+      <c r="B196" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>332</v>
+      </c>
+      <c r="B197" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>161</v>
+      </c>
+      <c r="B199" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>178</v>
+      </c>
+      <c r="B200" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>334</v>
+      </c>
+      <c r="B202" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>106</v>
+      </c>
+      <c r="B203" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>268</v>
+      </c>
+      <c r="B207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>114</v>
+      </c>
+      <c r="B208" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>115</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>116</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>118</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>119</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>120</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>121</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>122</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>123</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>124</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15635,7 +17514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C233"/>
   <sheetViews>
@@ -17831,7 +19710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C233"/>
   <sheetViews>
@@ -19852,7 +21731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C163"/>
   <sheetViews>

--- a/data/subject_contrast.xlsx
+++ b/data/subject_contrast.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B671056-811A-402A-A40C-0A1D91F55DAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2780C-58C3-47C0-A0E6-54327E6F3BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constrast" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="event" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constrast!$B$2:$B$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">constrast!$B$2:$B$222</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="1464">
   <si>
     <t>库存现金</t>
   </si>
@@ -8045,6 +8045,34 @@
   </si>
   <si>
     <t>结转本年利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8440,10 +8468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8484,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="C2" t="s">
         <v>810</v>
@@ -8530,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>1459</v>
       </c>
       <c r="C4" t="s">
         <v>810</v>
@@ -8714,7 +8742,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1457</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -9774,21 +9802,21 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="57" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="10">
         <v>1</v>
       </c>
-      <c r="E57" t="s">
-        <v>338</v>
+      <c r="E57" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="F57" t="s">
         <v>1055</v>
@@ -9796,22 +9824,23 @@
       <c r="G57" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" t="s">
-        <v>311</v>
-      </c>
-      <c r="C58" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="10">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>337</v>
+      <c r="E58" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="F58" t="s">
         <v>1055</v>
@@ -9819,22 +9848,23 @@
       <c r="G58" t="s">
         <v>1061</v>
       </c>
+      <c r="H58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>1120</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>1120</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
         <v>1055</v>
@@ -9845,13 +9875,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -9867,19 +9897,19 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>960</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" t="s">
         <v>337</v>
       </c>
       <c r="F61" t="s">
@@ -9890,19 +9920,19 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>961</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="10">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" t="s">
         <v>337</v>
       </c>
       <c r="F62" t="s">
@@ -9913,19 +9943,19 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63">
+      <c r="D63" s="10">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="10" t="s">
         <v>337</v>
       </c>
       <c r="F63" t="s">
@@ -9937,10 +9967,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>21</v>
@@ -9955,18 +9985,18 @@
         <v>1055</v>
       </c>
       <c r="G64" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>829</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -9978,20 +10008,23 @@
         <v>1055</v>
       </c>
       <c r="G65" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>829</v>
-      </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>829</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="A66" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>337</v>
       </c>
       <c r="F66" t="s">
@@ -10003,13 +10036,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>829</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -10026,16 +10059,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>829</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
+        <v>829</v>
       </c>
       <c r="E68" t="s">
         <v>337</v>
@@ -10046,31 +10076,22 @@
       <c r="G68" t="s">
         <v>1062</v>
       </c>
-      <c r="M68" t="s">
-        <v>291</v>
-      </c>
-      <c r="N68" t="s">
-        <v>136</v>
-      </c>
-      <c r="O68" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F69" t="s">
         <v>1055</v>
@@ -10078,22 +10099,16 @@
       <c r="G69" t="s">
         <v>1062</v>
       </c>
-      <c r="M69" t="s">
-        <v>291</v>
-      </c>
-      <c r="N69" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -10107,22 +10122,31 @@
       <c r="G70" t="s">
         <v>1062</v>
       </c>
+      <c r="M70" t="s">
+        <v>291</v>
+      </c>
+      <c r="N70" t="s">
+        <v>136</v>
+      </c>
+      <c r="O70" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F71" t="s">
         <v>1055</v>
@@ -10130,22 +10154,28 @@
       <c r="G71" t="s">
         <v>1062</v>
       </c>
+      <c r="M71" t="s">
+        <v>291</v>
+      </c>
+      <c r="N71" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F72" t="s">
         <v>1055</v>
@@ -10156,13 +10186,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -10178,19 +10208,19 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" t="s">
         <v>338</v>
       </c>
       <c r="F74" t="s">
@@ -10201,20 +10231,20 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="A75" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="10">
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>338</v>
+      <c r="E75" t="s">
+        <v>337</v>
       </c>
       <c r="F75" t="s">
         <v>1055</v>
@@ -10224,20 +10254,20 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76">
+      <c r="A76" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="10">
         <v>1</v>
       </c>
-      <c r="E76" t="s">
-        <v>337</v>
+      <c r="E76" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="F76" t="s">
         <v>1055</v>
@@ -10247,19 +10277,19 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77">
+      <c r="A77" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="10">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="10" t="s">
         <v>338</v>
       </c>
       <c r="F77" t="s">
@@ -10271,13 +10301,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -10294,19 +10324,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F79" t="s">
         <v>1055</v>
@@ -10317,13 +10347,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>1119</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -10340,13 +10370,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -10363,19 +10393,19 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>1119</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F82" t="s">
         <v>1055</v>
@@ -10386,10 +10416,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
         <v>31</v>
@@ -10398,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F83" t="s">
         <v>1055</v>
@@ -10409,10 +10439,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
@@ -10421,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F84" t="s">
         <v>1055</v>
@@ -10432,19 +10462,19 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F85" t="s">
         <v>1055</v>
@@ -10455,19 +10485,19 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F86" t="s">
         <v>1055</v>
@@ -10478,13 +10508,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -10498,25 +10528,22 @@
       <c r="G87" t="s">
         <v>1062</v>
       </c>
-      <c r="M87" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F88" t="s">
         <v>1055</v>
@@ -10524,19 +10551,16 @@
       <c r="G88" t="s">
         <v>1062</v>
       </c>
-      <c r="M88" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -10550,16 +10574,19 @@
       <c r="G89" t="s">
         <v>1062</v>
       </c>
+      <c r="M89" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -10573,16 +10600,19 @@
       <c r="G90" t="s">
         <v>1062</v>
       </c>
+      <c r="M90" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -10599,19 +10629,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
         <v>1055</v>
@@ -10622,10 +10652,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
@@ -10634,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" t="s">
         <v>1055</v>
@@ -10645,19 +10675,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>1118</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F94" t="s">
         <v>1055</v>
@@ -10668,19 +10698,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F95" t="s">
         <v>1055</v>
@@ -10691,13 +10721,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>1118</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -10714,19 +10744,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
         <v>1055</v>
@@ -10737,13 +10767,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -10760,19 +10790,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F99" t="s">
         <v>1055</v>
@@ -10783,13 +10813,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -10806,10 +10836,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>1127</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
         <v>46</v>
@@ -10829,13 +10859,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -10852,59 +10882,59 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>986</v>
+        <v>1127</v>
       </c>
       <c r="C103" t="s">
-        <v>987</v>
+        <v>46</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F103" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G103" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>986</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>986</v>
+        <v>47</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F104" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G104" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>986</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>987</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10921,13 +10951,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>986</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>986</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10944,13 +10974,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10967,13 +10997,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10990,13 +11020,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -11013,13 +11043,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -11036,13 +11066,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -11059,13 +11089,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -11082,13 +11112,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -11105,13 +11135,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -11128,13 +11158,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -11151,10 +11181,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>1460</v>
       </c>
       <c r="C116" t="s">
         <v>54</v>
@@ -11174,13 +11204,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1121</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -11197,13 +11227,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -11220,13 +11250,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>1121</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -11243,13 +11273,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1070</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -11265,13 +11295,13 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C121" s="10" t="s">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" t="s">
         <v>57</v>
       </c>
       <c r="D121">
@@ -11289,13 +11319,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>1070</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -11311,14 +11341,14 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>279</v>
-      </c>
-      <c r="B123" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" t="s">
-        <v>58</v>
+      <c r="A123" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -11334,13 +11364,13 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>965</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" t="s">
         <v>58</v>
       </c>
       <c r="D124">
@@ -11358,13 +11388,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -11380,14 +11410,14 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" t="s">
-        <v>151</v>
+      <c r="A126" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -11404,13 +11434,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -11426,14 +11456,14 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>973</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>59</v>
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -11450,13 +11480,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -11472,14 +11502,14 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>326</v>
-      </c>
-      <c r="B130" t="s">
-        <v>326</v>
-      </c>
-      <c r="C130" t="s">
-        <v>326</v>
+      <c r="A130" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -11496,13 +11526,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -11519,13 +11549,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -11542,13 +11572,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -11565,13 +11595,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>1131</v>
+        <v>62</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -11588,13 +11618,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -11611,13 +11641,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>1131</v>
       </c>
       <c r="C136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -11634,13 +11664,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -11652,18 +11682,18 @@
         <v>1056</v>
       </c>
       <c r="G137" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>1130</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -11675,18 +11705,18 @@
         <v>1056</v>
       </c>
       <c r="G138" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -11703,13 +11733,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -11725,16 +11755,16 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>967</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="10">
+      <c r="A141" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="s">
@@ -11749,13 +11779,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>1128</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -11771,16 +11801,16 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>70</v>
-      </c>
-      <c r="B143" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D143">
+      <c r="A143" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="10">
         <v>1</v>
       </c>
       <c r="E143" t="s">
@@ -11795,13 +11825,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>1129</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -11818,13 +11848,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>1132</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -11841,13 +11871,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>1129</v>
       </c>
       <c r="C146" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -11864,13 +11894,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="B147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -11887,13 +11917,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1074</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>1074</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -11910,13 +11940,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -11933,13 +11963,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>75</v>
+        <v>1074</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>1074</v>
       </c>
       <c r="C150" t="s">
-        <v>830</v>
+        <v>74</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -11948,21 +11978,21 @@
         <v>338</v>
       </c>
       <c r="F150" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G150" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="C151" t="s">
-        <v>830</v>
+        <v>74</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -11971,15 +12001,15 @@
         <v>338</v>
       </c>
       <c r="F151" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G151" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="B152" t="s">
         <v>175</v>
@@ -12002,13 +12032,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>830</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -12025,13 +12055,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="B154" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="C154" t="s">
-        <v>77</v>
+        <v>830</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -12048,13 +12078,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -12071,13 +12101,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
-        <v>1134</v>
+        <v>77</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -12094,13 +12124,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>1133</v>
+        <v>126</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -12117,13 +12147,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
+        <v>1134</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -12140,13 +12170,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>1133</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -12163,13 +12193,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -12186,13 +12216,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C161" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -12209,13 +12239,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -12224,21 +12254,21 @@
         <v>338</v>
       </c>
       <c r="F162" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G162" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C163" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -12247,26 +12277,26 @@
         <v>338</v>
       </c>
       <c r="F163" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G163" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C164" s="10" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
         <v>177</v>
       </c>
-      <c r="D164" s="10">
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" t="s">
         <v>338</v>
       </c>
       <c r="F164" t="s">
@@ -12275,22 +12305,21 @@
       <c r="G164" t="s">
         <v>1067</v>
       </c>
-      <c r="H164"/>
-    </row>
-    <row r="165" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C165" s="10" t="s">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C165" t="s">
         <v>177</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E165" t="s">
         <v>338</v>
       </c>
       <c r="F165" t="s">
@@ -12299,22 +12328,21 @@
       <c r="G165" t="s">
         <v>1067</v>
       </c>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>293</v>
-      </c>
-      <c r="B166" t="s">
-        <v>160</v>
-      </c>
-      <c r="C166" t="s">
+    </row>
+    <row r="166" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="10">
         <v>1</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="10" t="s">
         <v>338</v>
       </c>
       <c r="F166" t="s">
@@ -12323,13 +12351,14 @@
       <c r="G166" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>968</v>
+        <v>1041</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>177</v>
@@ -12346,16 +12375,17 @@
       <c r="G167" t="s">
         <v>1067</v>
       </c>
+      <c r="H167"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C168" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -12371,19 +12401,19 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>86</v>
-      </c>
-      <c r="B169" t="s">
-        <v>86</v>
-      </c>
-      <c r="C169" t="s">
-        <v>86</v>
-      </c>
-      <c r="D169">
+      <c r="A169" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="10">
         <v>1</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="10" t="s">
         <v>338</v>
       </c>
       <c r="F169" t="s">
@@ -12395,13 +12425,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -12418,56 +12448,56 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C171" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F171" t="s">
         <v>1058</v>
       </c>
       <c r="G171" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
         <v>1058</v>
       </c>
       <c r="G172" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="C173" t="s">
         <v>88</v>
@@ -12487,10 +12517,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" t="s">
         <v>88</v>
@@ -12510,10 +12540,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C175" t="s">
         <v>88</v>
@@ -12533,7 +12563,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="B176" t="s">
         <v>164</v>
@@ -12556,7 +12586,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>164</v>
@@ -12579,13 +12609,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C178" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -12602,13 +12632,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C179" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -12625,13 +12655,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -12648,13 +12678,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C181" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -12671,13 +12701,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C182" t="s">
-        <v>832</v>
+        <v>91</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -12694,13 +12724,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C183" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -12717,13 +12747,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C184" t="s">
-        <v>95</v>
+        <v>832</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -12740,13 +12770,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C185" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -12763,13 +12793,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="B186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -12786,7 +12816,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="B187" t="s">
         <v>96</v>
@@ -12809,13 +12839,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="B188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -12832,13 +12862,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -12855,13 +12885,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -12878,13 +12908,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C191" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -12901,13 +12931,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B192" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -12924,13 +12954,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C193" t="s">
-        <v>1126</v>
+        <v>99</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -12947,59 +12977,59 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1122</v>
+        <v>100</v>
       </c>
       <c r="B194" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F194" t="s">
         <v>1058</v>
       </c>
       <c r="G194" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B195" t="s">
-        <v>1123</v>
+        <v>101</v>
       </c>
       <c r="C195" t="s">
-        <v>103</v>
+        <v>1126</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F195" t="s">
         <v>1058</v>
       </c>
       <c r="G195" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>128</v>
+        <v>1122</v>
       </c>
       <c r="B196" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C196" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -13016,13 +13046,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="B197" t="s">
-        <v>330</v>
+        <v>1123</v>
       </c>
       <c r="C197" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -13039,13 +13069,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="B198" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="C198" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -13062,13 +13092,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="B199" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="C199" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -13085,13 +13115,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="B200" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
       <c r="C200" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -13108,13 +13138,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="B201" t="s">
-        <v>1124</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -13131,13 +13161,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C202" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -13154,36 +13184,36 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="B203" t="s">
-        <v>334</v>
+        <v>1124</v>
       </c>
       <c r="C203" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F203" t="s">
         <v>1058</v>
       </c>
       <c r="G203" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B204" t="s">
-        <v>1125</v>
+        <v>105</v>
       </c>
       <c r="C204" t="s">
-        <v>1125</v>
+        <v>105</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -13200,82 +13230,82 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="B205" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="C205" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F205" t="s">
         <v>1058</v>
       </c>
       <c r="G205" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B206" t="s">
-        <v>108</v>
+        <v>1125</v>
       </c>
       <c r="C206" t="s">
-        <v>108</v>
+        <v>1125</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F206" t="s">
         <v>1058</v>
       </c>
       <c r="G206" t="s">
-        <v>570</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C207" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F207" t="s">
         <v>1058</v>
       </c>
       <c r="G207" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="B208" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -13287,64 +13317,64 @@
         <v>1058</v>
       </c>
       <c r="G208" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B209" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C209" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D209">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F209" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G209" t="s">
-        <v>1059</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="B210" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C210" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F210" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G210" t="s">
-        <v>1060</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B211" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C211" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -13353,21 +13383,21 @@
         <v>338</v>
       </c>
       <c r="F211" t="s">
-        <v>155</v>
+        <v>1059</v>
       </c>
       <c r="G211" t="s">
-        <v>155</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C212" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -13376,21 +13406,21 @@
         <v>338</v>
       </c>
       <c r="F212" t="s">
-        <v>155</v>
+        <v>1060</v>
       </c>
       <c r="G212" t="s">
-        <v>155</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B213" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -13407,13 +13437,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -13430,13 +13460,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C215" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -13453,13 +13483,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B216" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C216" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -13476,13 +13506,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B217" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C217" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -13499,13 +13529,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C218" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -13522,13 +13552,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B219" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C219" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -13543,8 +13573,54 @@
         <v>155</v>
       </c>
     </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>123</v>
+      </c>
+      <c r="B220" t="s">
+        <v>123</v>
+      </c>
+      <c r="C220" t="s">
+        <v>123</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>338</v>
+      </c>
+      <c r="F220" t="s">
+        <v>155</v>
+      </c>
+      <c r="G220" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>124</v>
+      </c>
+      <c r="B221" t="s">
+        <v>124</v>
+      </c>
+      <c r="C221" t="s">
+        <v>124</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>338</v>
+      </c>
+      <c r="F221" t="s">
+        <v>155</v>
+      </c>
+      <c r="G221" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:B220" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:B222" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24507,9 +24583,9 @@
       <c r="B127" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C127" t="e">
+      <c r="C127" t="str">
         <f>VLOOKUP(B127,constrast!A:B,2,0)</f>
-        <v>#N/A</v>
+        <v>工程施工</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24519,9 +24595,9 @@
       <c r="B128" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C128" t="e">
+      <c r="C128" t="str">
         <f>VLOOKUP(B128,constrast!A:B,2,0)</f>
-        <v>#N/A</v>
+        <v>工程结算</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -24954,7 +25030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBDC970-EF89-4FB5-8BC5-6EEAAD52577E}">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/subject_contrast.xlsx
+++ b/data/subject_contrast.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2780C-58C3-47C0-A0E6-54327E6F3BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A9A9C-482A-46D5-92EB-EDFD6EA39753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constrast" sheetId="1" r:id="rId1"/>
@@ -8470,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
